--- a/hasil_komoditas_termahal.xlsx
+++ b/hasil_komoditas_termahal.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>komoditas</t>
+          <t>Komoditas</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>harga_tertinggi</t>
+          <t>HargaTertinggi</t>
         </is>
       </c>
     </row>

--- a/hasil_komoditas_termahal.xlsx
+++ b/hasil_komoditas_termahal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,263 +436,393 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Komoditas</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>HargaTertinggi</t>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Harga Tertinggi</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Cabai Merah Keriting</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>521800</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Rp 521.800,00</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Daging Sapi Murni</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>172421</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Rp 172.421,00</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Daging Kerbau Segar (Lokal)</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>160794</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Rp 160.794,00</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Daging Kerbau Beku (Impor)</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>150000</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Rp 150.000,00</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Cabai Merah Besar</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>140000</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Rp 140.000,00</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Cabai Rawit Merah</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>138144</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Rp 138.144,00</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>22</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Telur Ayam Ras</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>117500</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Rp 117.500,00</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Ikan Kembung</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>100000</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rp 100.000,00</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Ikan Tongkol</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>100000</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Rp 100.000,00</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>14</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Ikan Bandeng</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>100000</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Rp 100.000,00</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Bawang Putih (Bonggol)</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>97500</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Rp 97.500,00</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Bawang Merah</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>90000</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Rp 90.000,00</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Daging Ayam Ras</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>80000</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Rp 80.000,00</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>20</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Minyak Goreng Kemasan</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>53750</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Rp 53.750,00</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Gula Pasir Lokal/Curah</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>40500</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Rp 40.500,00</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>24</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Tepung Terigu Kemasan</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>40000</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Rp 40.000,00</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Beras SPHP</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>37500</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Rp 37.500,00</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>12</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Garam Konsumsi</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>33967</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Rp 33.967,00</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Beras Premium</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>30000</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Rp 30.000,00</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Minyak Goreng Curah</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>30000</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Rp 30.000,00</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Beras Medium</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>29167</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Rp 29.167,00</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>17</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Jagung Tingkat Peternak</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>29038</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Rp 29.038,00</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>18</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Kedelai Biji Kering</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>28713</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Rp 28.713,00</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Tepung Terigu Curah</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>26710</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Rp 26.710,00</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>21</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Minyak Kita</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>22425</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Rp 22.167,00</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/hasil_komoditas_termahal.xlsx
+++ b/hasil_komoditas_termahal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,390 +436,310 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>Komoditas</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Komoditas</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>Harga Tertinggi</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>6</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cabai Merah Keriting</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cabai Merah Keriting</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>Rp 521.800,00</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>11</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Daging Sapi Murni</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Daging Sapi Murni</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>Rp 172.421,00</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>10</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Daging Kerbau Segar (Lokal)</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Daging Kerbau Segar (Lokal)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>Rp 160.794,00</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>9</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Daging Kerbau Beku (Impor)</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Daging Kerbau Beku (Impor)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>Rp 150.000,00</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cabai Merah Besar</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cabai Merah Besar</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>Rp 140.000,00</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>7</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cabai Rawit Merah</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cabai Rawit Merah</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
           <t>Rp 138.144,00</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>22</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Telur Ayam Ras</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Telur Ayam Ras</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
           <t>Rp 117.500,00</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>15</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ikan Kembung</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ikan Kembung</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
           <t>Rp 100.000,00</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>16</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ikan Tongkol</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ikan Tongkol</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
           <t>Rp 100.000,00</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>14</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ikan Bandeng</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ikan Bandeng</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
           <t>Rp 100.000,00</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Bawang Putih (Bonggol)</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bawang Putih (Bonggol)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
           <t>Rp 97.500,00</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Bawang Merah</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bawang Merah</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
           <t>Rp 90.000,00</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>8</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Daging Ayam Ras</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Daging Ayam Ras</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
           <t>Rp 80.000,00</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>20</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Minyak Goreng Kemasan</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Minyak Goreng Kemasan</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
           <t>Rp 53.750,00</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>13</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gula Pasir Lokal/Curah</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Gula Pasir Lokal/Curah</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
           <t>Rp 40.500,00</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>24</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Tepung Terigu Kemasan</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tepung Terigu Kemasan</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
           <t>Rp 40.000,00</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Beras SPHP</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Beras SPHP</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
           <t>Rp 37.500,00</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>12</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Garam Konsumsi</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Garam Konsumsi</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
           <t>Rp 33.967,00</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>3</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Beras Premium</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Beras Premium</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
           <t>Rp 30.000,00</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Minyak Goreng Curah</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Minyak Goreng Curah</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
           <t>Rp 30.000,00</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>2</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Beras Medium</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Beras Medium</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
           <t>Rp 29.167,00</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>17</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jagung Tingkat Peternak</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jagung Tingkat Peternak</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
           <t>Rp 29.038,00</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>18</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Kedelai Biji Kering</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Kedelai Biji Kering</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
           <t>Rp 28.713,00</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Tepung Terigu Curah</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tepung Terigu Curah</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
           <t>Rp 26.710,00</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>21</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Minyak Kita</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>Minyak Kita</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>Rp 22.167,00</t>
         </is>
